--- a/remetentes.xlsx
+++ b/remetentes.xlsx
@@ -19,7 +19,7 @@
     <t>Email</t>
   </si>
   <si>
-    <t>no-reply@mail.instagram.com</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -100,7 +100,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -417,12 +417,12 @@
     <col min="1" max="1" style="3" width="41.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
